--- a/notebooks/home_expenses.xlsx
+++ b/notebooks/home_expenses.xlsx
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1888.24</v>
+        <v>-1929.55</v>
       </c>
       <c r="C2">
-        <v>-104.9022222222222</v>
+        <v>-107.1972222222222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1772.31</v>
+        <v>-2008.18</v>
       </c>
       <c r="C3">
-        <v>-98.46166666666666</v>
+        <v>-111.5655555555555</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -464,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-692.5400000000001</v>
+        <v>-899.4000000000001</v>
       </c>
       <c r="C6">
-        <v>-38.47444444444445</v>
+        <v>-49.96666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -475,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-11482.27</v>
+        <v>-11966.31</v>
       </c>
       <c r="C7">
-        <v>-637.9038888888888</v>
+        <v>-664.795</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/home_expenses.xlsx
+++ b/notebooks/home_expenses.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Category</t>
   </si>
@@ -38,9 +32,6 @@
   </si>
   <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -398,87 +389,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-18.08333333333333</v>
+      </c>
+      <c r="C2">
+        <v>-100.8616666666667</v>
+      </c>
+      <c r="D2">
+        <v>-109.911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>-14.87833333333333</v>
+      </c>
+      <c r="C3">
+        <v>-113.1433333333333</v>
+      </c>
+      <c r="D3">
+        <v>-93.636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>-1929.55</v>
-      </c>
-      <c r="C2">
-        <v>-107.1972222222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>-88.83</v>
+      </c>
+      <c r="C4">
+        <v>-95.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>-2008.18</v>
-      </c>
-      <c r="C3">
-        <v>-111.5655555555555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C5">
+        <v>-244.6691666666667</v>
+      </c>
+      <c r="D5">
+        <v>-304.619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-1146.96</v>
-      </c>
-      <c r="C4">
-        <v>-63.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-5982.219999999999</v>
-      </c>
-      <c r="C5">
-        <v>-332.3455555555555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
-        <v>-899.4000000000001</v>
+        <v>-15.92666666666667</v>
       </c>
       <c r="C6">
-        <v>-49.96666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-11966.31</v>
-      </c>
-      <c r="C7">
-        <v>-664.795</v>
+        <v>-45.44333333333334</v>
+      </c>
+      <c r="D6">
+        <v>-35.408</v>
       </c>
     </row>
   </sheetData>
